--- a/Approximationen/COP Modell HP.xlsx
+++ b/Approximationen/COP Modell HP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CD2B1F3F-A320-4D8A-A6BB-D2BC3FA92E1D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_C6CBF199996A04C89DCEB33F439A3A797AE3C11D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D4277009-3074-4421-88C6-11B40CF28CEB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
             <c:v>1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -332,7 +332,7 @@
             <c:v>2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
@@ -585,7 +585,7 @@
             <c:v>3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -690,13 +690,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="9">
-                  <c:v>7.3278699999999999</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1691200000000004</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0180899999999999</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6.8742200000000002</c:v>
@@ -968,11 +968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="636179695"/>
-        <c:axId val="626760111"/>
+        <c:axId val="79600256"/>
+        <c:axId val="79618816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="636179695"/>
+        <c:axId val="79600256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1066,26 +1066,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1118,14 +1098,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626760111"/>
+        <c:crossAx val="79618816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="626760111"/>
+        <c:axId val="79618816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1192,7 +1172,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.2285967007180357E-2"/>
-              <c:y val="0.39524071045783593"/>
+              <c:y val="0.39524071045783599"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1203,23 +1183,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1252,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636179695"/>
+        <c:crossAx val="79600256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.25"/>
@@ -1298,571 +1261,15 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{28BD19F8-807A-4CE7-AEB2-3099B5BE24C7}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1874,7 +1281,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303297" cy="6010603"/>
+    <xdr:ext cx="9308224" cy="6017172"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -2511,6 +1918,97 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07626</cdr:x>
+      <cdr:y>0.1694</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96946</cdr:x>
+      <cdr:y>0.17049</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Gerade Verbindung 9"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="709448" y="1018190"/>
+          <a:ext cx="8309741" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15063</cdr:x>
+      <cdr:y>0.1169</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.24891</cdr:x>
+      <cdr:y>0.26903</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Textfeld 10"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1402109" y="703431"/>
+          <a:ext cx="914812" cy="915392"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1500" b="1" i="1"/>
+            <a:t>COP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1500" b="1" i="0" baseline="-25000"/>
+            <a:t>max</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -2557,7 +2055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2592,7 +2090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2776,11 +2274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C38"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,7 +2446,7 @@
         <v>64</v>
       </c>
       <c r="H13">
-        <v>7.3278699999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,7 +2470,7 @@
         <v>65</v>
       </c>
       <c r="H14">
-        <v>7.1691200000000004</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,7 +2494,7 @@
         <v>66</v>
       </c>
       <c r="H15">
-        <v>7.0180899999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">

--- a/Approximationen/COP Modell HP.xlsx
+++ b/Approximationen/COP Modell HP.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_C6CBF199996A04C89DCEB33F439A3A797AE3C11D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D4277009-3074-4421-88C6-11B40CF28CEB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,9 +25,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Carnot</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WP3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,25 +93,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -318,8 +322,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DA59-46F6-ADD7-A379FA30DE4E}"/>
             </c:ext>
@@ -571,8 +574,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DA59-46F6-ADD7-A379FA30DE4E}"/>
             </c:ext>
@@ -770,8 +772,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DA59-46F6-ADD7-A379FA30DE4E}"/>
             </c:ext>
@@ -831,8 +832,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA59-46F6-ADD7-A379FA30DE4E}"/>
             </c:ext>
@@ -892,8 +892,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DA59-46F6-ADD7-A379FA30DE4E}"/>
             </c:ext>
@@ -953,32 +952,1034 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-DA59-46F6-ADD7-A379FA30DE4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="79600256"/>
-        <c:axId val="79618816"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>WP1 0.66</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$4:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="2">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$4:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="2">
+                  <c:v>5.5730399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4454285714285717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3242784810126578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2091111111111106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0994939759036146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9950352941176464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8953793103448273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8002022471910113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7092087912087912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6221290322580648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5387157894736845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4587422680412372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3082970297029703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2374563106796117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1693142857142851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1037196261682247</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0405321100917435</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9796216216216216</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9208672566371683</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8641565217391305</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8093846153846154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6668-4804-9BDE-E1C6D44C9815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>WP 1 0.72</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$6:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$P$6:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>6.0796799999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9404675324675313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.808303797468354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6826666666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5630843373493972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4491294117647051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3404137931034477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2365842696629201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1373186813186802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0423225806451608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9513263157894736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8640824742268043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7803636363636359</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6999603960396037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6226796116504847</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.548342857142857</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4767850467289714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4078532110091739</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3414054054054052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.277309734513274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2154434782608687</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1556923076923074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6668-4804-9BDE-E1C6D44C9815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>WP2 0.66</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$R$4:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$S$4:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.4314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3901343283582088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3499852941176473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2731285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2363239436619717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2005416666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1657397260273972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1318783783783783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0989199999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0668289473684212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0355714285714286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0051153846153844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9754303797468356</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9464874999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9182592592592593</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8907195121951217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8638433734939759</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8376071428571428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8119882352941179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7869651162790698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7625172413793102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7386249999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7152696629213482</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6924333333333332</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6700989010989011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6668-4804-9BDE-E1C6D44C9815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>WP2 0.72</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$R$4:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$U$4:$U$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.7434545454545454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.698328358208955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6545294117647056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5706857142857138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5305352112676052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4914999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4535342465753422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4165945945945944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3806399999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3456315789473678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3115324675324671</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2783076923076919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2459240506329112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2143499999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1835555555555555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1535121951219507</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1241927710843371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0955714285714282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0676235294117644</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0403255813953485</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.013655172413793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9875909090909087</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9621123595505616</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9371999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9128351648351645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6668-4804-9BDE-E1C6D44C9815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>WP 3 0.66</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$W$4:$W$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$X$4:$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="1">
+                  <c:v>7.2206129032258062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0155937499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6417352941176464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4708285714285712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3094166666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1567297297297303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0120789473684209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8748461538461543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7444749999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6204634146341466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5023571428571429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.389744186046511</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2822499999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1795333333333335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.081282608695652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9872127659574472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8970624999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6668-4804-9BDE-E1C6D44C9815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>WP 3 0.72</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$W$10:$W$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$Z$10:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.8829999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7164324324324323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5586315789473675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4089230769230765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2666999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1314146341463411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0025714285714278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8797209302325575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7624545454545446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6503999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5432173913043474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4405957446808504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3422499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6668-4804-9BDE-E1C6D44C9815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="111360256"/>
+        <c:axId val="111366528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79600256"/>
+        <c:axId val="111360256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
           <c:min val="40"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1058,7 +2059,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1068,7 +2069,6 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1095,23 +2095,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79618816"/>
+        <c:crossAx val="111366528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79618816"/>
+        <c:axId val="111366528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
           <c:min val="2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1172,10 +2171,9 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.2285967007180357E-2"/>
-              <c:y val="0.39524071045783599"/>
+              <c:y val="0.39524071045783604"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1185,7 +2183,6 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1212,10 +2209,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79600256"/>
+        <c:crossAx val="111360256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.25"/>
@@ -1232,14 +2229,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1258,7 +2254,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:userShapes r:id="rId1"/>
@@ -1266,7 +2262,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
@@ -1281,13 +2277,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308224" cy="6017172"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F5846C-2D8C-4952-91D9-7D894D089D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F5846C-2D8C-4952-91D9-7D894D089D93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +2322,7 @@
         <cdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECA2928-0355-479E-A7C8-9457381A34DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CECA2928-0355-479E-A7C8-9457381A34DE}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1367,7 +2363,7 @@
         <cdr:cNvPr id="3" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D881EAD8-CFD6-4146-A2A6-3043D0FE00FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D881EAD8-CFD6-4146-A2A6-3043D0FE00FC}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1472,7 +2468,7 @@
         <cdr:cNvPr id="4" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190DD88F-4E98-4E9C-9954-74616061E62E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{190DD88F-4E98-4E9C-9954-74616061E62E}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1577,7 +2573,7 @@
         <cdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FB25B1-B6AE-4C3F-B34D-3BC50268F530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7FB25B1-B6AE-4C3F-B34D-3BC50268F530}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1603,28 +2599,28 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30408</cdr:x>
-      <cdr:y>0.50552</cdr:y>
+      <cdr:x>0.08324</cdr:x>
+      <cdr:y>0.42976</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.40237</cdr:x>
-      <cdr:y>0.65765</cdr:y>
+      <cdr:x>0.18153</cdr:x>
+      <cdr:y>0.58189</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="6" name="Textfeld 5">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CA127D-3250-4A97-80EE-5CD56756453F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8CA127D-3250-4A97-80EE-5CD56756453F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="863102">
-          <a:off x="2828925" y="3038475"/>
-          <a:ext cx="914400" cy="914400"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1285303">
+          <a:off x="774272" y="2584238"/>
+          <a:ext cx="914231" cy="914784"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1664,28 +2660,28 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.54604</cdr:x>
-      <cdr:y>0.66769</cdr:y>
+      <cdr:x>0.72324</cdr:x>
+      <cdr:y>0.74758</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.64433</cdr:x>
-      <cdr:y>0.81982</cdr:y>
+      <cdr:x>0.82153</cdr:x>
+      <cdr:y>0.89971</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="7" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC85C97-A759-4F20-9B19-F4EECEFC5859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DC85C97-A759-4F20-9B19-F4EECEFC5859}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="501309">
-          <a:off x="5080001" y="4013202"/>
-          <a:ext cx="914400" cy="914400"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="410356">
+          <a:off x="6727161" y="4495327"/>
+          <a:ext cx="914232" cy="914784"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1795,28 +2791,28 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.56857</cdr:x>
-      <cdr:y>0.28736</cdr:y>
+      <cdr:x>0.67631</cdr:x>
+      <cdr:y>0.37689</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66686</cdr:x>
-      <cdr:y>0.43949</cdr:y>
+      <cdr:x>0.7746</cdr:x>
+      <cdr:y>0.52902</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="8" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796A31A8-CFDC-49A5-8B39-0AF44584507A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{796A31A8-CFDC-49A5-8B39-0AF44584507A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1560867">
-          <a:off x="5289551" y="1727199"/>
-          <a:ext cx="914400" cy="914400"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1330515">
+          <a:off x="6290647" y="2266334"/>
+          <a:ext cx="914232" cy="914784"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1920,12 +2916,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07626</cdr:x>
-      <cdr:y>0.1694</cdr:y>
+      <cdr:x>0.07982</cdr:x>
+      <cdr:y>0.16802</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96946</cdr:x>
-      <cdr:y>0.17049</cdr:y>
+      <cdr:x>0.97302</cdr:x>
+      <cdr:y>0.16911</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1934,8 +2930,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="709448" y="1018190"/>
-          <a:ext cx="8309741" cy="6569"/>
+          <a:off x="742452" y="1010350"/>
+          <a:ext cx="8307984" cy="6554"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -1972,11 +2968,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.15063</cdr:x>
+      <cdr:x>0.20139</cdr:x>
       <cdr:y>0.1169</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.24891</cdr:x>
+      <cdr:x>0.29967</cdr:x>
       <cdr:y>0.26903</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -1986,8 +2982,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1402109" y="703431"/>
-          <a:ext cx="914812" cy="915392"/>
+          <a:off x="1873173" y="702940"/>
+          <a:ext cx="914139" cy="914784"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2005,6 +3001,698 @@
             <a:rPr lang="de-DE" sz="1500" b="1" i="0" baseline="-25000"/>
             <a:t>max</a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10875</cdr:x>
+      <cdr:y>0.37071</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20706</cdr:x>
+      <cdr:y>0.52277</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{CC4B0A58-BCB6-4FAB-8F10-5CEF8E83880C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2365906">
+          <a:off x="1011552" y="2229139"/>
+          <a:ext cx="914418" cy="914363"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0.66</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1300" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13102</cdr:x>
+      <cdr:y>0.32112</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.22932</cdr:x>
+      <cdr:y>0.47319</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{17F6E089-87A6-4946-94D9-B64871D6C8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2371214">
+          <a:off x="1218692" y="1930956"/>
+          <a:ext cx="914324" cy="914423"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0.72</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1300" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53351</cdr:x>
+      <cdr:y>0.3404</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63182</cdr:x>
+      <cdr:y>0.49247</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{74461065-9710-4223-8EB3-DFCD883B873B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2293845">
+          <a:off x="4962381" y="2046904"/>
+          <a:ext cx="914418" cy="914423"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0.66</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1300" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53886</cdr:x>
+      <cdr:y>0.22884</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63716</cdr:x>
+      <cdr:y>0.3809</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="16" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{1125B1A6-FD79-47EF-8B94-45B7A2B4DCCA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2603043">
+          <a:off x="5012120" y="1376045"/>
+          <a:ext cx="914324" cy="914363"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0.72</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1300" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51392</cdr:x>
+      <cdr:y>0.64619</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61223</cdr:x>
+      <cdr:y>0.79825</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{B0E8AAE4-3F81-4D26-B8F5-9F1F0A7F5B16}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="865054">
+          <a:off x="4780166" y="3885660"/>
+          <a:ext cx="914418" cy="914363"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0.66</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1300" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56023</cdr:x>
+      <cdr:y>0.61589</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65854</cdr:x>
+      <cdr:y>0.76795</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{269247DD-E2CB-45CD-BBCD-9A1A983DDDC4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="865054">
+          <a:off x="5210894" y="3703453"/>
+          <a:ext cx="914417" cy="914363"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0.72</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1300" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -2267,23 +3955,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>53</v>
       </c>
@@ -2302,40 +3990,215 @@
       <c r="H2">
         <v>6.4</v>
       </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
+      <c r="N3">
+        <v>0.66</v>
+      </c>
+      <c r="O3">
+        <v>0.69</v>
+      </c>
+      <c r="P3">
+        <v>0.72</v>
+      </c>
+      <c r="S3">
+        <v>0.66</v>
+      </c>
+      <c r="T3">
+        <v>0.69</v>
+      </c>
+      <c r="U3">
+        <v>0.72</v>
+      </c>
+      <c r="X3">
+        <v>0.66</v>
+      </c>
+      <c r="Y3">
+        <v>0.69</v>
+      </c>
+      <c r="Z3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="D4">
         <v>65</v>
       </c>
       <c r="E4">
         <v>3.3263799999999999</v>
       </c>
+      <c r="R4">
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <f>$S$3*(R4+273.15)/(R4-4)</f>
+        <v>3.4314999999999998</v>
+      </c>
+      <c r="T4">
+        <f>$T$3*(R4+273.15)/(R4-4)</f>
+        <v>3.5874772727272721</v>
+      </c>
+      <c r="U4">
+        <f>$U$3*(R4+273.15)/(R4-4)</f>
+        <v>3.7434545454545454</v>
+      </c>
+      <c r="W4">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="D5">
         <v>66</v>
       </c>
       <c r="E5">
         <v>3.2974899999999998</v>
       </c>
+      <c r="R5">
+        <v>71</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S29" si="0">$S$3*(R5+273.15)/(R5-4)</f>
+        <v>3.3901343283582088</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T29" si="1">$T$3*(R5+273.15)/(R5-4)</f>
+        <v>3.5442313432835815</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U29" si="2">$U$3*(R5+273.15)/(R5-4)</f>
+        <v>3.698328358208955</v>
+      </c>
+      <c r="W5">
+        <v>66</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X22" si="3">$X$3*(W5+273.15)/(W5-35)</f>
+        <v>7.2206129032258062</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y6" si="4">$Y$3*(W5+273.15)/(W5-35)</f>
+        <v>7.5488225806451599</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="D6">
         <v>67</v>
       </c>
       <c r="E6">
         <v>3.2692700000000001</v>
       </c>
+      <c r="M6">
+        <v>43.5</v>
+      </c>
+      <c r="N6">
+        <f>$N$3*(M6+273.15)/(M6-6)</f>
+        <v>5.5730399999999998</v>
+      </c>
+      <c r="O6">
+        <f>$O$3*(M6+273.15)/(M6-6)</f>
+        <v>5.8263599999999993</v>
+      </c>
+      <c r="P6">
+        <f>$P$3*(M6+273.15)/(M6-6)</f>
+        <v>6.0796799999999989</v>
+      </c>
+      <c r="R6">
+        <v>72</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>3.3499852941176473</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>3.502257352941176</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>3.6545294117647056</v>
+      </c>
+      <c r="W6">
+        <v>67</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>7.0155937499999999</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>7.3344843749999988</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z10" si="5">$Z$3*(W6+273.15)/(W6-35)</f>
+        <v>7.6533749999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="D7">
         <v>68</v>
       </c>
       <c r="E7">
         <v>3.2417099999999999</v>
       </c>
+      <c r="M7">
+        <v>44.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N27" si="6">$N$3*(M7+273.15)/(M7-6)</f>
+        <v>5.4454285714285717</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O27" si="7">$O$3*(M7+273.15)/(M7-6)</f>
+        <v>5.6929480519480506</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P27" si="8">$P$3*(M7+273.15)/(M7-6)</f>
+        <v>5.9404675324675313</v>
+      </c>
+      <c r="R7">
+        <v>73</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>3.4614999999999996</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>3.6119999999999997</v>
+      </c>
+      <c r="W7">
+        <v>68</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>6.8229999999999995</v>
+      </c>
+      <c r="Y7">
+        <f>$Y$3*(W7+273.15)/(W7-35)</f>
+        <v>7.1331363636363623</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>7.4432727272727268</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>41.5</v>
       </c>
@@ -2352,8 +4215,53 @@
       <c r="E8">
         <v>3.2147800000000002</v>
       </c>
+      <c r="M8">
+        <v>45.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>5.3242784810126578</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>5.566291139240505</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>5.808303797468354</v>
+      </c>
+      <c r="R8">
+        <v>74</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>3.2731285714285714</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>3.4219071428571426</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>3.5706857142857138</v>
+      </c>
+      <c r="W8">
+        <v>69</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>6.6417352941176464</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8:Y22" si="9">$Y$3*(W8+273.15)/(W8-35)</f>
+        <v>6.943632352941175</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="5"/>
+        <v>7.2455294117647053</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>42.5</v>
       </c>
@@ -2361,7 +4269,7 @@
         <v>5.3042499999999997</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C38" si="0">0.6*(A9+2+273.15)/(A9+2-4)</f>
+        <f t="shared" ref="C9:C38" si="10">0.6*(A9+2+273.15)/(A9+2-4)</f>
         <v>4.705925925925925</v>
       </c>
       <c r="D9">
@@ -2370,8 +4278,53 @@
       <c r="E9">
         <v>3.1884600000000001</v>
       </c>
+      <c r="M9">
+        <v>46.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>5.2091111111111106</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>5.4458888888888888</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>5.6826666666666661</v>
+      </c>
+      <c r="R9">
+        <v>75</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>3.2363239436619717</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>3.3834295774647885</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>3.5305352112676052</v>
+      </c>
+      <c r="W9">
+        <v>70</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>6.4708285714285712</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="9"/>
+        <v>6.764957142857142</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="5"/>
+        <v>7.0590857142857137</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>43.5</v>
       </c>
@@ -2379,7 +4332,7 @@
         <v>5.2188499999999998</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.6069879518072279</v>
       </c>
       <c r="D10">
@@ -2388,8 +4341,53 @@
       <c r="E10">
         <v>3.1627399999999999</v>
       </c>
+      <c r="M10">
+        <v>47.5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>5.0994939759036146</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>5.3312891566265055</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>5.5630843373493972</v>
+      </c>
+      <c r="R10">
+        <v>76</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>3.2005416666666666</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>3.3460208333333328</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>3.4914999999999998</v>
+      </c>
+      <c r="W10">
+        <v>71</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>6.3094166666666665</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="9"/>
+        <v>6.5962083333333323</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="5"/>
+        <v>6.8829999999999991</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>44.5</v>
       </c>
@@ -2397,7 +4395,7 @@
         <v>5.13673</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.5127058823529413</v>
       </c>
       <c r="D11">
@@ -2406,8 +4404,53 @@
       <c r="E11">
         <v>3.1375899999999999</v>
       </c>
+      <c r="M11">
+        <v>48.5</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>4.9950352941176464</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>5.2220823529411762</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>5.4491294117647051</v>
+      </c>
+      <c r="R11">
+        <v>77</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>3.1657397260273972</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>3.3096369863013693</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>3.4535342465753422</v>
+      </c>
+      <c r="W11">
+        <v>72</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>6.1567297297297303</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="9"/>
+        <v>6.4365810810810808</v>
+      </c>
+      <c r="Z11">
+        <f>$Z$3*(W11+273.15)/(W11-35)</f>
+        <v>6.7164324324324323</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>45.5</v>
       </c>
@@ -2415,7 +4458,7 @@
         <v>5.05769</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.4227586206896552</v>
       </c>
       <c r="D12">
@@ -2424,8 +4467,53 @@
       <c r="E12">
         <v>3.1129799999999999</v>
       </c>
+      <c r="M12">
+        <v>49.5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>4.8953793103448273</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>5.1178965517241375</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>5.3404137931034477</v>
+      </c>
+      <c r="R12">
+        <v>78</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>3.1318783783783783</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>3.2742364864864859</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>3.4165945945945944</v>
+      </c>
+      <c r="W12">
+        <v>73</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>6.0120789473684209</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="9"/>
+        <v>6.2853552631578937</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:Z22" si="11">$Z$3*(W12+273.15)/(W12-35)</f>
+        <v>6.5586315789473675</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>46.5</v>
       </c>
@@ -2433,7 +4521,7 @@
         <v>4.9815800000000001</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.336853932584269</v>
       </c>
       <c r="D13">
@@ -2448,8 +4536,53 @@
       <c r="H13">
         <v>7</v>
       </c>
+      <c r="M13">
+        <v>50.5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>4.8002022471910113</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>5.0183932584269657</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>5.2365842696629201</v>
+      </c>
+      <c r="R13">
+        <v>79</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>3.0989199999999997</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>3.2397799999999997</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>3.3806399999999996</v>
+      </c>
+      <c r="W13">
+        <v>74</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>5.8748461538461543</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="9"/>
+        <v>6.1418846153846145</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="11"/>
+        <v>6.4089230769230765</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>47.5</v>
       </c>
@@ -2457,7 +4590,7 @@
         <v>4.90822</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.2547252747252742</v>
       </c>
       <c r="D14">
@@ -2472,8 +4605,53 @@
       <c r="H14">
         <v>7</v>
       </c>
+      <c r="M14">
+        <v>51.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>4.7092087912087912</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>4.9232637362637357</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>5.1373186813186802</v>
+      </c>
+      <c r="R14">
+        <v>80</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>3.0668289473684212</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>3.2062302631578943</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>3.3456315789473678</v>
+      </c>
+      <c r="W14">
+        <v>75</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>5.7444749999999996</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>6.005587499999999</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="11"/>
+        <v>6.2666999999999993</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>48.5</v>
       </c>
@@ -2481,7 +4659,7 @@
         <v>4.8374699999999997</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.1761290322580642</v>
       </c>
       <c r="D15">
@@ -2496,8 +4674,53 @@
       <c r="H15">
         <v>7</v>
       </c>
+      <c r="M15">
+        <v>52.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>4.6221290322580648</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>4.8322258064516124</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>5.0423225806451608</v>
+      </c>
+      <c r="R15">
+        <v>81</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>3.0355714285714286</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>3.1735519480519474</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>3.3115324675324671</v>
+      </c>
+      <c r="W15">
+        <v>76</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>5.6204634146341466</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="9"/>
+        <v>5.8759390243902434</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="11"/>
+        <v>6.1314146341463411</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>49.5</v>
       </c>
@@ -2505,7 +4728,7 @@
         <v>4.7691999999999997</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.1008421052631574</v>
       </c>
       <c r="D16">
@@ -2520,8 +4743,53 @@
       <c r="H16">
         <v>6.8742200000000002</v>
       </c>
+      <c r="M16">
+        <v>53.5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>4.5387157894736845</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>4.7450210526315786</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>4.9513263157894736</v>
+      </c>
+      <c r="R16">
+        <v>82</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>3.0051153846153844</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>3.1417115384615379</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>3.2783076923076919</v>
+      </c>
+      <c r="W16">
+        <v>77</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>5.5023571428571429</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="9"/>
+        <v>5.7524642857142849</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="11"/>
+        <v>6.0025714285714278</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>50.5</v>
       </c>
@@ -2529,7 +4797,7 @@
         <v>4.7032800000000003</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.0286597938144331</v>
       </c>
       <c r="D17">
@@ -2544,8 +4812,53 @@
       <c r="H17">
         <v>6.7370099999999997</v>
       </c>
+      <c r="M17">
+        <v>54.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>4.4587422680412372</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>4.6614123711340198</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>4.8640824742268043</v>
+      </c>
+      <c r="R17">
+        <v>83</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>2.9754303797468356</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>3.1106772151898729</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>3.2459240506329112</v>
+      </c>
+      <c r="W17">
+        <v>78</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>5.389744186046511</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="9"/>
+        <v>5.6347325581395342</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="11"/>
+        <v>5.8797209302325575</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>51.5</v>
       </c>
@@ -2553,7 +4866,7 @@
         <v>4.6395799999999996</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.959393939393939</v>
       </c>
       <c r="D18">
@@ -2568,8 +4881,53 @@
       <c r="H18">
         <v>6.60602</v>
       </c>
+      <c r="M18">
+        <v>55.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>4.3819999999999997</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>4.5811818181818174</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>4.7803636363636359</v>
+      </c>
+      <c r="R18">
+        <v>84</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>2.9464874999999999</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>3.0804187499999993</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>3.2143499999999996</v>
+      </c>
+      <c r="W18">
+        <v>79</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>5.2822499999999994</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>5.5223522727272716</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="11"/>
+        <v>5.7624545454545446</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>52.5</v>
       </c>
@@ -2577,7 +4935,7 @@
         <v>4.5780000000000003</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.8928712871287123</v>
       </c>
       <c r="D19">
@@ -2592,8 +4950,53 @@
       <c r="H19">
         <v>6.4808300000000001</v>
       </c>
+      <c r="M19">
+        <v>56.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>4.3082970297029703</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>4.5041287128712861</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>4.6999603960396037</v>
+      </c>
+      <c r="R19">
+        <v>85</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>2.9182592592592593</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>3.050907407407407</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>3.1835555555555555</v>
+      </c>
+      <c r="W19">
+        <v>80</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>5.1795333333333335</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="9"/>
+        <v>5.4149666666666656</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="11"/>
+        <v>5.6503999999999994</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>53.5</v>
       </c>
@@ -2601,7 +5004,7 @@
         <v>4.5184300000000004</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.8289320388349508</v>
       </c>
       <c r="D20">
@@ -2616,8 +5019,53 @@
       <c r="H20">
         <v>6.3610600000000002</v>
       </c>
+      <c r="M20">
+        <v>57.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>4.2374563106796117</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>4.4300679611650473</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>4.6226796116504847</v>
+      </c>
+      <c r="R20">
+        <v>86</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>2.8907195121951217</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>3.0221158536585362</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>3.1535121951219507</v>
+      </c>
+      <c r="W20">
+        <v>81</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>5.081282608695652</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="9"/>
+        <v>5.3122499999999988</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="11"/>
+        <v>5.5432173913043474</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>54.5</v>
       </c>
@@ -2625,7 +5073,7 @@
         <v>4.4607799999999997</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.7674285714285713</v>
       </c>
       <c r="D21">
@@ -2640,8 +5088,53 @@
       <c r="H21">
         <v>6.2463699999999998</v>
       </c>
+      <c r="M21">
+        <v>58.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>4.1693142857142851</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>4.3588285714285702</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>4.548342857142857</v>
+      </c>
+      <c r="R21">
+        <v>87</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>2.8638433734939759</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>2.9940180722891565</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>3.1241927710843371</v>
+      </c>
+      <c r="W21">
+        <v>82</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>4.9872127659574472</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="9"/>
+        <v>5.2139042553191484</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="11"/>
+        <v>5.4405957446808504</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>55.5</v>
       </c>
@@ -2649,7 +5142,7 @@
         <v>4.4049500000000004</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.7082242990654204</v>
       </c>
       <c r="D22">
@@ -2664,8 +5157,53 @@
       <c r="H22">
         <v>6.1364400000000003</v>
       </c>
+      <c r="M22">
+        <v>59.5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>4.1037196261682247</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>4.2902523364485976</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>4.4767850467289714</v>
+      </c>
+      <c r="R22">
+        <v>88</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>2.8376071428571428</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>2.9665892857142855</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>3.0955714285714282</v>
+      </c>
+      <c r="W22">
+        <v>83</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>4.8970624999999997</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="9"/>
+        <v>5.1196562499999994</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="11"/>
+        <v>5.3422499999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>56.5</v>
       </c>
@@ -2673,7 +5211,7 @@
         <v>4.3508599999999999</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.6511926605504583</v>
       </c>
       <c r="D23">
@@ -2688,8 +5226,38 @@
       <c r="H23">
         <v>6.0309900000000001</v>
       </c>
+      <c r="M23">
+        <v>60.5</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>4.0405321100917435</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>4.2241926605504583</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>4.4078532110091739</v>
+      </c>
+      <c r="R23">
+        <v>89</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>2.8119882352941179</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>2.9398058823529407</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>3.0676235294117644</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>57.5</v>
       </c>
@@ -2697,7 +5265,7 @@
         <v>4.2984400000000003</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.5962162162162157</v>
       </c>
       <c r="D24">
@@ -2712,8 +5280,38 @@
       <c r="H24">
         <v>5.9297399999999998</v>
       </c>
+      <c r="M24">
+        <v>61.5</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>3.9796216216216216</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>4.1605135135135134</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>4.3414054054054052</v>
+      </c>
+      <c r="R24">
+        <v>90</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>2.7869651162790698</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>2.9136453488372087</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>3.0403255813953485</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>58.5</v>
       </c>
@@ -2721,7 +5319,7 @@
         <v>4.2476000000000003</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.5431858407079639</v>
       </c>
       <c r="D25">
@@ -2736,8 +5334,38 @@
       <c r="H25">
         <v>5.8324400000000001</v>
       </c>
+      <c r="M25">
+        <v>62.5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>3.9208672566371683</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>4.0990884955752209</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>4.277309734513274</v>
+      </c>
+      <c r="R25">
+        <v>91</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>2.7625172413793102</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>2.8880862068965514</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>3.013655172413793</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>59.5</v>
       </c>
@@ -2745,7 +5373,7 @@
         <v>4.1982699999999999</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.492</v>
       </c>
       <c r="D26">
@@ -2760,8 +5388,38 @@
       <c r="H26">
         <v>5.73888</v>
       </c>
+      <c r="M26">
+        <v>63.5</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>3.8641565217391305</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>4.0397999999999996</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>4.2154434782608687</v>
+      </c>
+      <c r="R26">
+        <v>92</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>2.7386249999999999</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>2.8631079545454541</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>2.9875909090909087</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>60.5</v>
       </c>
@@ -2769,7 +5427,7 @@
         <v>4.1503800000000002</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.4425641025641025</v>
       </c>
       <c r="D27">
@@ -2784,8 +5442,38 @@
       <c r="H27">
         <v>5.6488300000000002</v>
       </c>
+      <c r="M27">
+        <v>64.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>3.8093846153846154</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>3.9825384615384611</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>4.1556923076923074</v>
+      </c>
+      <c r="R27">
+        <v>93</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>2.7152696629213482</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>2.8386910112359547</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>2.9621123595505616</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>61.5</v>
       </c>
@@ -2793,7 +5481,7 @@
         <v>4.1038899999999998</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.3947899159663861</v>
       </c>
       <c r="D28">
@@ -2808,8 +5496,23 @@
       <c r="H28">
         <v>5.5621099999999997</v>
       </c>
+      <c r="R28">
+        <v>94</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>2.6924333333333332</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>2.8148166666666663</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>2.9371999999999994</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>62.5</v>
       </c>
@@ -2817,7 +5520,7 @@
         <v>4.0587099999999996</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.3485950413223136</v>
       </c>
       <c r="D29">
@@ -2832,8 +5535,23 @@
       <c r="H29">
         <v>5.4785300000000001</v>
       </c>
+      <c r="R29">
+        <v>95</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>2.6700989010989011</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>2.7914670329670326</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>2.9128351648351645</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>63.5</v>
       </c>
@@ -2841,7 +5559,7 @@
         <v>4.0148099999999998</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.3039024390243896</v>
       </c>
       <c r="D30">
@@ -2857,7 +5575,7 @@
         <v>5.3979299999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>64.5</v>
       </c>
@@ -2865,7 +5583,7 @@
         <v>3.9721299999999999</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.26064</v>
       </c>
       <c r="D31">
@@ -2881,7 +5599,7 @@
         <v>5.3201499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>65.5</v>
       </c>
@@ -2889,7 +5607,7 @@
         <v>3.9306100000000002</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.2187401574803149</v>
       </c>
       <c r="D32">
@@ -2905,7 +5623,7 @@
         <v>5.24505</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>66.5</v>
       </c>
@@ -2913,7 +5631,7 @@
         <v>3.8902100000000002</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.1781395348837207</v>
       </c>
       <c r="D33">
@@ -2929,7 +5647,7 @@
         <v>5.1724800000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>67.5</v>
       </c>
@@ -2937,7 +5655,7 @@
         <v>3.8508800000000001</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.1387786259541981</v>
       </c>
       <c r="D34">
@@ -2953,7 +5671,7 @@
         <v>5.1023300000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>68.5</v>
       </c>
@@ -2961,7 +5679,7 @@
         <v>3.8125900000000001</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.1006015037593979</v>
       </c>
       <c r="D35">
@@ -2977,7 +5695,7 @@
         <v>5.0344699999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>69.5</v>
       </c>
@@ -2985,7 +5703,7 @@
         <v>3.77529</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.0635555555555554</v>
       </c>
       <c r="D36">
@@ -3001,7 +5719,7 @@
         <v>4.9687900000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>70.5</v>
       </c>
@@ -3009,7 +5727,7 @@
         <v>3.7389399999999999</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3.0275912408759122</v>
       </c>
       <c r="D37">
@@ -3025,7 +5743,7 @@
         <v>4.9051900000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>71.5</v>
       </c>
@@ -3033,7 +5751,7 @@
         <v>3.7035200000000001</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>2.9926618705035968</v>
       </c>
       <c r="D38">

--- a/Approximationen/COP Modell HP.xlsx
+++ b/Approximationen/COP Modell HP.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_1EF11CA05893A1F916E374B213BE819488419B42" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E290186D-3334-438F-8514-1209E85D55F5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Diagramm1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Diagramm1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +96,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -322,9 +337,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA59-46F6-ADD7-A379FA30DE4E}"/>
+              <c16:uniqueId val="{00000000-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -574,9 +590,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA59-46F6-ADD7-A379FA30DE4E}"/>
+              <c16:uniqueId val="{00000001-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -772,9 +789,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DA59-46F6-ADD7-A379FA30DE4E}"/>
+              <c16:uniqueId val="{00000002-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -832,9 +850,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DA59-46F6-ADD7-A379FA30DE4E}"/>
+              <c16:uniqueId val="{00000003-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -892,9 +911,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DA59-46F6-ADD7-A379FA30DE4E}"/>
+              <c16:uniqueId val="{00000004-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -952,9 +972,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DA59-46F6-ADD7-A379FA30DE4E}"/>
+              <c16:uniqueId val="{00000005-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1125,9 +1146,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6668-4804-9BDE-E1C6D44C9815}"/>
+              <c16:uniqueId val="{00000006-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,9 +1320,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6668-4804-9BDE-E1C6D44C9815}"/>
+              <c16:uniqueId val="{00000007-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1495,9 +1518,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6668-4804-9BDE-E1C6D44C9815}"/>
+              <c16:uniqueId val="{00000008-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1692,9 +1716,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6668-4804-9BDE-E1C6D44C9815}"/>
+              <c16:uniqueId val="{00000009-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1844,9 +1869,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6668-4804-9BDE-E1C6D44C9815}"/>
+              <c16:uniqueId val="{0000000A-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1963,13 +1989,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6668-4804-9BDE-E1C6D44C9815}"/>
+              <c16:uniqueId val="{0000000B-814D-40EA-AA66-7DF1C8B520E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="111360256"/>
         <c:axId val="111366528"/>
       </c:scatterChart>
@@ -1980,6 +2014,7 @@
           <c:max val="100"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2059,7 +2094,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2069,6 +2104,7 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2095,7 +2131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="111366528"/>
@@ -2111,6 +2147,7 @@
           <c:max val="8"/>
           <c:min val="2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2174,6 +2211,7 @@
               <c:y val="0.39524071045783604"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2183,6 +2221,7 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2209,7 +2248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="111360256"/>
@@ -2229,13 +2268,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2254,7 +2294,1196 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$4:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="4">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="4">
+                  <c:v>5.3931100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3042499999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2188499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.13673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.05769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9815800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.90822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8374699999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7691999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7032800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6395799999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5184300000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4607799999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4049500000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3508599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2984400000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2476000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1982699999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1503800000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1038899999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0587099999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0148099999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9721299999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9306100000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8902100000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8508800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8125900000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.77529</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7389399999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7035200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA59-46F6-ADD7-A379FA30DE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$4:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$4:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>3.3263799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2974899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2692700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2417099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2147800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1884600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1627399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1375899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1129799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0889199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0653700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0423200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0197600000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9976600000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9760200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9548299999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9340600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.91371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8550200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8177500000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7996500000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7818800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.76444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7473299999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7305199999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7140200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.69781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6818900000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6662499999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6508799999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6357699999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.62093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA59-46F6-ADD7-A379FA30DE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$4:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8742200000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7370099999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.60602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4808300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3610600000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2463699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1364400000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0309900000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9297399999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8324400000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.73888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6488300000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5621099999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.4785300000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3979299999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3201499999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.24505</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1724800000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1023300000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0344699999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9687900000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9051900000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8435800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DA59-46F6-ADD7-A379FA30DE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>WP 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA59-46F6-ADD7-A379FA30DE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>WP 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DA59-46F6-ADD7-A379FA30DE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>WP 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DA59-46F6-ADD7-A379FA30DE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="111360256"/>
+        <c:axId val="111366528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="111360256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nutztemperatur T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2200" b="1" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2200" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [°C]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="2200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111366528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="15"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="111366528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>COP [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2285967007180357E-2"/>
+              <c:y val="0.39524071045783604"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111360256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:userShapes r:id="rId1"/>
@@ -2262,10 +3491,22 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{425CB07A-3D88-4D2F-A404-29DD56516F41}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2283,7 +3524,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F5846C-2D8C-4952-91D9-7D894D089D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B024AB93-6BE0-4789-AD86-012A4E500150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +3563,7 @@
         <cdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CECA2928-0355-479E-A7C8-9457381A34DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECA2928-0355-479E-A7C8-9457381A34DE}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2363,7 +3604,7 @@
         <cdr:cNvPr id="3" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D881EAD8-CFD6-4146-A2A6-3043D0FE00FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D881EAD8-CFD6-4146-A2A6-3043D0FE00FC}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2468,7 +3709,7 @@
         <cdr:cNvPr id="4" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{190DD88F-4E98-4E9C-9954-74616061E62E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190DD88F-4E98-4E9C-9954-74616061E62E}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2573,7 +3814,7 @@
         <cdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7FB25B1-B6AE-4C3F-B34D-3BC50268F530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FB25B1-B6AE-4C3F-B34D-3BC50268F530}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2611,7 +3852,7 @@
         <cdr:cNvPr id="6" name="Textfeld 5">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8CA127D-3250-4A97-80EE-5CD56756453F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CA127D-3250-4A97-80EE-5CD56756453F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2672,7 +3913,7 @@
         <cdr:cNvPr id="7" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DC85C97-A759-4F20-9B19-F4EECEFC5859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC85C97-A759-4F20-9B19-F4EECEFC5859}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2803,7 +4044,7 @@
         <cdr:cNvPr id="8" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{796A31A8-CFDC-49A5-8B39-0AF44584507A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796A31A8-CFDC-49A5-8B39-0AF44584507A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3019,7 +4260,7 @@
         <cdr:cNvPr id="12" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{CC4B0A58-BCB6-4FAB-8F10-5CEF8E83880C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4B0A58-BCB6-4FAB-8F10-5CEF8E83880C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3134,7 +4375,7 @@
         <cdr:cNvPr id="13" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{17F6E089-87A6-4946-94D9-B64871D6C8A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F6E089-87A6-4946-94D9-B64871D6C8A7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3249,7 +4490,7 @@
         <cdr:cNvPr id="14" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{74461065-9710-4223-8EB3-DFCD883B873B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74461065-9710-4223-8EB3-DFCD883B873B}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3364,7 +4605,7 @@
         <cdr:cNvPr id="16" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{1125B1A6-FD79-47EF-8B94-45B7A2B4DCCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1125B1A6-FD79-47EF-8B94-45B7A2B4DCCA}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3479,7 +4720,7 @@
         <cdr:cNvPr id="17" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{B0E8AAE4-3F81-4D26-B8F5-9F1F0A7F5B16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E8AAE4-3F81-4D26-B8F5-9F1F0A7F5B16}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3596,7 +4837,7 @@
         <cdr:cNvPr id="19" name="Textfeld 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{269247DD-E2CB-45CD-BBCD-9A1A983DDDC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269247DD-E2CB-45CD-BBCD-9A1A983DDDC4}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3693,6 +4934,741 @@
               <a:srgbClr val="92D050"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F5846C-2D8C-4952-91D9-7D894D089D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24981</cdr:x>
+      <cdr:y>0.41837</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31329</cdr:x>
+      <cdr:y>0.47384</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECA2928-0355-479E-A7C8-9457381A34DE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2323617" y="2515718"/>
+          <a:ext cx="590451" cy="333551"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1"/>
+            <a:t>WP 1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82351</cdr:x>
+      <cdr:y>0.65977</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88698</cdr:x>
+      <cdr:y>0.71523</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D881EAD8-CFD6-4146-A2A6-3043D0FE00FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7659785" y="3967288"/>
+          <a:ext cx="590358" cy="333490"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1"/>
+            <a:t>WP 2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48666</cdr:x>
+      <cdr:y>0.262</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55014</cdr:x>
+      <cdr:y>0.31747</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190DD88F-4E98-4E9C-9954-74616061E62E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4527550" y="1574800"/>
+          <a:ext cx="590550" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1"/>
+            <a:t>WP 3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37267</cdr:x>
+      <cdr:y>0.45164</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.47096</cdr:x>
+      <cdr:y>0.60377</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FB25B1-B6AE-4C3F-B34D-3BC50268F530}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="867709">
+          <a:off x="3467100" y="2714625"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12282</cdr:x>
+      <cdr:y>0.43444</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.22111</cdr:x>
+      <cdr:y>0.58657</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CA127D-3250-4A97-80EE-5CD56756453F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1239521">
+          <a:off x="1142408" y="2612382"/>
+          <a:ext cx="914232" cy="914784"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14°C/6°C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -&gt; 32,5°C/T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56144</cdr:x>
+      <cdr:y>0.69056</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65973</cdr:x>
+      <cdr:y>0.84269</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC85C97-A759-4F20-9B19-F4EECEFC5859}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="458577">
+          <a:off x="5222173" y="4152429"/>
+          <a:ext cx="914231" cy="914784"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8°C/4°C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -&gt; 60°C/T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54626</cdr:x>
+      <cdr:y>0.3167</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64455</cdr:x>
+      <cdr:y>0.46883</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796A31A8-CFDC-49A5-8B39-0AF44584507A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1510133">
+          <a:off x="5080934" y="1904355"/>
+          <a:ext cx="914231" cy="914784"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>40°C/35°C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -&gt; 60°C/T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="-25000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10302</cdr:x>
+      <cdr:y>0.16632</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96362</cdr:x>
+      <cdr:y>0.16719</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Gerade Verbindung 9"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="958198" y="1000125"/>
+          <a:ext cx="8004828" cy="5239"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18567</cdr:x>
+      <cdr:y>0.09589</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28395</cdr:x>
+      <cdr:y>0.24802</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Textfeld 10"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1727015" y="576630"/>
+          <a:ext cx="914139" cy="914784"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="2200" b="1" i="1"/>
+            <a:t>COP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="2200" b="1" i="0" baseline="-25000"/>
+            <a:t>max</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -3955,23 +5931,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Z38"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3:Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>53</v>
       </c>
@@ -4003,7 +5979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>0.66</v>
       </c>
@@ -4032,7 +6008,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>65</v>
       </c>
@@ -4058,7 +6034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>66</v>
       </c>
@@ -4092,7 +6068,7 @@
         <v>7.5488225806451599</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>67</v>
       </c>
@@ -4145,7 +6121,7 @@
         <v>7.6533749999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>68</v>
       </c>
@@ -4198,7 +6174,7 @@
         <v>7.4432727272727268</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>41.5</v>
       </c>
@@ -4261,7 +6237,7 @@
         <v>7.2455294117647053</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42.5</v>
       </c>
@@ -4324,7 +6300,7 @@
         <v>7.0590857142857137</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>43.5</v>
       </c>
@@ -4387,7 +6363,7 @@
         <v>6.8829999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44.5</v>
       </c>
@@ -4450,7 +6426,7 @@
         <v>6.7164324324324323</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45.5</v>
       </c>
@@ -4513,7 +6489,7 @@
         <v>6.5586315789473675</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.5</v>
       </c>
@@ -4582,7 +6558,7 @@
         <v>6.4089230769230765</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>47.5</v>
       </c>
@@ -4651,7 +6627,7 @@
         <v>6.2666999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>48.5</v>
       </c>
@@ -4720,7 +6696,7 @@
         <v>6.1314146341463411</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>49.5</v>
       </c>
@@ -4789,7 +6765,7 @@
         <v>6.0025714285714278</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50.5</v>
       </c>
@@ -4858,7 +6834,7 @@
         <v>5.8797209302325575</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>51.5</v>
       </c>
@@ -4927,7 +6903,7 @@
         <v>5.7624545454545446</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>52.5</v>
       </c>
@@ -4996,7 +6972,7 @@
         <v>5.6503999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>53.5</v>
       </c>
@@ -5065,7 +7041,7 @@
         <v>5.5432173913043474</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>54.5</v>
       </c>
@@ -5134,7 +7110,7 @@
         <v>5.4405957446808504</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55.5</v>
       </c>
@@ -5203,7 +7179,7 @@
         <v>5.3422499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>56.5</v>
       </c>
@@ -5257,7 +7233,7 @@
         <v>3.0676235294117644</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>57.5</v>
       </c>
@@ -5311,7 +7287,7 @@
         <v>3.0403255813953485</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>58.5</v>
       </c>
@@ -5365,7 +7341,7 @@
         <v>3.013655172413793</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>59.5</v>
       </c>
@@ -5419,7 +7395,7 @@
         <v>2.9875909090909087</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>60.5</v>
       </c>
@@ -5473,7 +7449,7 @@
         <v>2.9621123595505616</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>61.5</v>
       </c>
@@ -5512,7 +7488,7 @@
         <v>2.9371999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>62.5</v>
       </c>
@@ -5551,7 +7527,7 @@
         <v>2.9128351648351645</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>63.5</v>
       </c>
@@ -5575,7 +7551,7 @@
         <v>5.3979299999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>64.5</v>
       </c>
@@ -5599,7 +7575,7 @@
         <v>5.3201499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>65.5</v>
       </c>
@@ -5623,7 +7599,7 @@
         <v>5.24505</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66.5</v>
       </c>
@@ -5647,7 +7623,7 @@
         <v>5.1724800000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>67.5</v>
       </c>
@@ -5671,7 +7647,7 @@
         <v>5.1023300000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>68.5</v>
       </c>
@@ -5695,7 +7671,7 @@
         <v>5.0344699999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>69.5</v>
       </c>
@@ -5719,7 +7695,7 @@
         <v>4.9687900000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70.5</v>
       </c>
@@ -5743,7 +7719,7 @@
         <v>4.9051900000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71.5</v>
       </c>
